--- a/Use Case Description.xlsx
+++ b/Use Case Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPA Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E32A8-2DBF-42C4-B56B-2FF29279539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD372C1D-58D6-4300-B431-13083D5A17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="3" activeTab="6" xr2:uid="{C601CD02-870E-4C1C-B245-DAAD95E7DB69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="3" activeTab="3" xr2:uid="{C601CD02-870E-4C1C-B245-DAAD95E7DB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Create new employee" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="191">
   <si>
     <t>Use case name</t>
   </si>
@@ -629,6 +629,10 @@
   </si>
   <si>
     <t>3.4. Staff is not selected</t>
+  </si>
+  <si>
+    <t>View refueling schedules
+Scheduling ground handling staff task</t>
   </si>
 </sst>
 </file>
@@ -823,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -840,179 +844,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B314966B-659E-4F79-BCFC-7C6FB0AA5ED4}">
   <dimension ref="A3:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,252 +1346,252 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23"/>
-      <c r="C10" s="5" t="s">
+    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B13" s="27"/>
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="23"/>
-      <c r="C11" s="19" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="27"/>
+      <c r="C14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="9" t="s">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9" t="s">
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="27"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="23"/>
-      <c r="C14" s="19" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="27"/>
+      <c r="C17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="8" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="23"/>
-      <c r="C16" s="19" t="s">
+    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="27"/>
+      <c r="C19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="9" t="s">
+    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="23"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="9" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="9" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="23"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="9" t="s">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8" t="s">
+    <row r="24" spans="2:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="2:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="36"/>
-    </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="26"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="26"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="26"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="26"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="26"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="27"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B12:B24"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -1609,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129EEE0B-B16A-45F6-AA1D-CEABE500E29E}">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1626,209 +1624,209 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="5" t="s">
+    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="40" t="s">
-        <v>89</v>
+      <c r="B13" s="27"/>
+      <c r="C13" s="44" t="s">
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="44" t="s">
+        <v>89</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="16"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="27"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="38"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="38"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1838,17 +1836,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B11:B20"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1858,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B8D294-52C0-42E4-A721-382C5A941123}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1875,93 +1873,93 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1973,7 +1971,7 @@
     </row>
     <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
@@ -1983,8 +1981,8 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="44" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1993,16 +1991,16 @@
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2011,8 +2009,8 @@
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="3" t="s">
         <v>122</v>
       </c>
@@ -2022,10 +2020,10 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2051,7 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC54568-DAAD-4E92-84A3-C9F24B72778A}">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -2068,94 +2066,94 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2167,8 +2165,8 @@
     </row>
     <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2177,8 +2175,8 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="44" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2187,16 +2185,16 @@
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="44" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2205,16 +2203,16 @@
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="44" t="s">
         <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2223,47 +2221,47 @@
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="49" t="s">
@@ -2273,7 +2271,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="49" t="s">
         <v>124</v>
       </c>
@@ -2281,7 +2279,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="49" t="s">
         <v>125</v>
       </c>
@@ -2289,7 +2287,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="49" t="s">
         <v>126</v>
       </c>
@@ -2297,15 +2295,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="49" t="s">
         <v>129</v>
       </c>
@@ -2313,7 +2311,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="49" t="s">
         <v>130</v>
       </c>
@@ -2351,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E978F6C-33AD-4569-AE9B-908CF85093DD}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2368,94 +2366,94 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2467,7 +2465,7 @@
     </row>
     <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="58"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="5" t="s">
         <v>132</v>
       </c>
@@ -2475,8 +2473,8 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="44" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2485,24 +2483,24 @@
     </row>
     <row r="14" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="44" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2511,31 +2509,31 @@
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="54" t="s">
@@ -2545,34 +2543,42 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -2582,14 +2588,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2599,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B552068B-43AC-4A96-93D5-B754317DA129}">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -2616,94 +2614,94 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2715,136 +2713,128 @@
     </row>
     <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="47" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="60" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="60" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="60" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="60" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="60" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="61" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="61" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C25:D25"/>
@@ -2855,6 +2845,14 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2862,16 +2860,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ABDB51-D850-4BCD-9DF1-01FE9C62F607}">
-  <dimension ref="A2:D30"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="34.90625" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2881,258 +2880,269 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="15" t="s">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="55"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="55"/>
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="55"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="55"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="63"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="60"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
